--- a/medicine/Enfance/Médaille_Carnegie/Médaille_Carnegie.xlsx
+++ b/medicine/Enfance/Médaille_Carnegie/Médaille_Carnegie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Carnegie</t>
+          <t>Médaille_Carnegie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Carnegie (en anglais : Carnegie Medal in Literature) est une récompense britannique créée en 1936 en l'honneur du philanthrope écossais Andrew Carnegie. Elle est décernée à des œuvres de littérature pour enfants ou jeunes adultes. Les livres en lice doivent être rédigés en anglais et avoir été publiés au Royaume-Uni l'année précédente. Le jury est composé de treize bibliothécaires pour la jeunesse du Youth Libraries Group of Chartered Institute of Library and Information Professionals (CILIP). Les livres candidats sont également lus par des étudiants de nombreuses écoles qui envoient leur avis aux jurés. Le CILIP reconnaît également l'excellence dans l'illustration avec la Kate Greenaway Medal
-La récompense est annoncée en juin, l'année suivant celle de la publication[1]. Le lauréat reçoit une médaille en or et un équivalent de 500 £ en livres à offrir à une bibliothèque publique ou scolaire. D'après les règles originales, un auteur ne pouvait gagner la médaille Carnegie qu'une seule fois. Cette règle a été changée de manière à pouvoir prendre en considération les travaux ultérieurs du même auteur.
+La récompense est annoncée en juin, l'année suivant celle de la publication. Le lauréat reçoit une médaille en or et un équivalent de 500 £ en livres à offrir à une bibliothèque publique ou scolaire. D'après les règles originales, un auteur ne pouvait gagner la médaille Carnegie qu'une seule fois. Cette règle a été changée de manière à pouvoir prendre en considération les travaux ultérieurs du même auteur.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Carnegie</t>
+          <t>Médaille_Carnegie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>* nommé comme faisant partie de la liste des dix meilleurs établie en 2007 pour le soixante-dixième anniversaire[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>* nommé comme faisant partie de la liste des dix meilleurs établie en 2007 pour le soixante-dixième anniversaire</t>
         </is>
       </c>
     </row>
